--- a/Data/WarriorResult.xlsx
+++ b/Data/WarriorResult.xlsx
@@ -38,61 +38,85 @@
     <t>$55.99</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Men's Starter Royal Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
+  </si>
+  <si>
+    <t>$112.49</t>
+  </si>
+  <si>
+    <t>Most Popular in Men Jackets</t>
+  </si>
+  <si>
+    <t>Men's Jordan Brand Navy Golden State Warriors Authentic Statement Edition Full-Zip Windbreaker</t>
+  </si>
+  <si>
+    <t>$129.99</t>
+  </si>
+  <si>
+    <t>Men's Starter White Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$138.74</t>
+  </si>
+  <si>
+    <t>Men's Nike Black Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$74.99</t>
+  </si>
+  <si>
     <t>Most Popular in Men Hoodies &amp; Sweatshirts</t>
   </si>
   <si>
-    <t>Men's Nike Black Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$74.99</t>
-  </si>
-  <si>
-    <t>Most Popular in Men Sweatshirts</t>
+    <t>Men's Starter Royal Golden State Warriors Force Play Satin Hoodie Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$123.74</t>
+  </si>
+  <si>
+    <t>Men's Nike Black/Yellow Golden State Warriors 2022/23 City Edition Showtime Thermaflex Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>Men's Starter Black Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
     <t>Men's Starter Royal Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
   </si>
   <si>
-    <t>$138.74</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Men's Jordan Brand Navy Golden State Warriors Authentic Statement Edition Full-Zip Windbreaker</t>
-  </si>
-  <si>
-    <t>$129.99</t>
-  </si>
-  <si>
-    <t>Men's Starter Royal Golden State Warriors Force Play Satin Hoodie Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$123.74</t>
-  </si>
-  <si>
-    <t>Men's Starter Black Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
-  </si>
-  <si>
-    <t>$112.49</t>
-  </si>
-  <si>
-    <t>Most Popular in Men Jackets</t>
-  </si>
-  <si>
     <t>Men's Antigua Heather Gray Golden State Warriors Victory Quarter-Zip Pullover Top</t>
   </si>
   <si>
     <t>$56.24</t>
   </si>
   <si>
-    <t>Men's Starter Royal Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
-  </si>
-  <si>
     <t>Men's Nike Royal Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
   </si>
   <si>
-    <t>Men's Nike Black/Yellow Golden State Warriors 2022/23 City Edition Showtime Thermaflex Full-Zip Jacket</t>
+    <t>Men's JH Design Royal/White Golden State Warriors Reversible Fleece &amp; Faux Leather Full-Snap Jacket</t>
+  </si>
+  <si>
+    <t>$89.99</t>
+  </si>
+  <si>
+    <t>Men's Starter Royal Golden State Warriors Force Play Satin Full-Snap Varsity Jacket</t>
+  </si>
+  <si>
+    <t>$97.49</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Black Golden State Warriors Durham Insignia Core Full-Zip Hoodie</t>
+  </si>
+  <si>
+    <t>$119.99</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Altitude Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$82.49</t>
   </si>
   <si>
     <t>Men's Starter x Ty Mopkins Black Golden State Warriors Black History Month Satin Full-Zip Jacket</t>
@@ -101,28 +125,31 @@
     <t>$149.99</t>
   </si>
   <si>
-    <t>Men's Starter White Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's Starter Royal Golden State Warriors Force Play Satin Full-Snap Varsity Jacket</t>
-  </si>
-  <si>
-    <t>$97.49</t>
+    <t>Men's JH Design Royal Golden State Warriors Reversible Embroidered Wool Full-Snap Jacket</t>
+  </si>
+  <si>
+    <t>$135.00</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Victory Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$59.99</t>
+  </si>
+  <si>
+    <t>Men's JH Design Gray/Royal Golden State Warriors Embroidered Logo Reversible Fleece Full-Snap Jacket</t>
   </si>
   <si>
     <t>Men's JH Design Black Golden State Warriors 2022/23 City Edition Full-Zip Nylon Bomber Jacket</t>
   </si>
   <si>
-    <t>Men's JH Design Royal/White Golden State Warriors Reversible Fleece &amp; Faux Leather Full-Snap Jacket</t>
-  </si>
-  <si>
-    <t>$89.99</t>
-  </si>
-  <si>
-    <t>Men's JH Design Royal Golden State Warriors Reversible Embroidered Wool Full-Snap Jacket</t>
-  </si>
-  <si>
-    <t>$135.00</t>
+    <t>Unisex Bleacher Report x Mitchell &amp; Ness Black Golden State Warriors Backstage Crew Hoodie Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>Men's Columbia Royal Golden State Warriors Steens Mountain 2.0 Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$53.99</t>
   </si>
   <si>
     <t>Men's Columbia Blue Golden State Warriors Oroville Creek Lined Full-Zip Jacket</t>
@@ -137,40 +164,25 @@
     <t>$85.99</t>
   </si>
   <si>
-    <t>Men's JH Design Gray/Royal Golden State Warriors Embroidered Logo Reversible Fleece Full-Snap Jacket</t>
-  </si>
-  <si>
-    <t>Men's Columbia Royal Golden State Warriors Steens Mountain 2.0 Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$53.99</t>
+    <t>Men's Mitchell &amp; Ness White Golden State Warriors Hardwood Classics Arched Retro Lined Full-Zip Windbreaker Jacket</t>
+  </si>
+  <si>
+    <t>$101.24</t>
   </si>
   <si>
     <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Hardwood Classics Team OG 2.0 Anorak Hoodie Half-Zip Windbreaker Jacket</t>
   </si>
   <si>
-    <t>$101.24</t>
+    <t>Men's Nike Royal Golden State Warriors Courtside Versus Capsule Full-Zip Jacket</t>
   </si>
   <si>
     <t>Men's G-III Sports by Carl Banks Royal Golden State Warriors Contender Wordmark Full-Zip Track Jacket</t>
   </si>
   <si>
-    <t>$59.99</t>
-  </si>
-  <si>
     <t>Men's Starter Gold Golden State Warriors Slider Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Altitude Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$82.49</t>
-  </si>
-  <si>
-    <t>Men's Mitchell &amp; Ness White Golden State Warriors Hardwood Classics Arched Retro Lined Full-Zip Windbreaker Jacket</t>
-  </si>
-  <si>
-    <t>Unisex Bleacher Report x Mitchell &amp; Ness Black Golden State Warriors Backstage Crew Hoodie Full-Zip Jacket</t>
+    <t>Unisex The Wild Collective Royal Golden State Warriors Metallic Full-Snap Bomber Jacket</t>
   </si>
   <si>
     <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Team Origins Anorak Quarter-Zip Pullover Hoodie</t>
@@ -179,33 +191,24 @@
     <t>$86.24</t>
   </si>
   <si>
-    <t>Unisex The Wild Collective Royal Golden State Warriors Metallic Full-Snap Bomber Jacket</t>
-  </si>
-  <si>
-    <t>$119.99</t>
-  </si>
-  <si>
-    <t>Men's Nike Royal Golden State Warriors Courtside Versus Capsule Full-Zip Jacket</t>
+    <t>Men's Antigua Black Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
+  </si>
+  <si>
+    <t>$65.99</t>
+  </si>
+  <si>
+    <t>Men's Antigua Heather Gray/Black Golden State Warriors Victory Colorblock Quarter-Zip Pullover Top</t>
   </si>
   <si>
     <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Undeniable Full-Zip Windbreaker Jacket</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Victory Full-Zip Jacket</t>
+    <t>Men's JH Design Royal Golden State Warriors Lightweight Nylon Full-Zip Bomber Jacket</t>
   </si>
   <si>
     <t>Men's Antigua Black Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
   </si>
   <si>
-    <t>$65.99</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Gray/Black Golden State Warriors Victory Colorblock Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
     <t>Men's Antigua Heather Gray Golden State Warriors Victory Full-Zip Jacket</t>
   </si>
   <si>
@@ -215,7 +218,28 @@
     <t>$99.99</t>
   </si>
   <si>
-    <t>Men's Levelwear Black Golden State Warriors Durham Insignia Core Full-Zip Hoodie</t>
+    <t>Men's Antigua Heather Black Golden State Warriors Action Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$58.49</t>
+  </si>
+  <si>
+    <t>Men's Fanatics Branded Royal Golden State Warriors Big &amp; Tall Anorak Half-Zip Hoodie</t>
+  </si>
+  <si>
+    <t>$52.49</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Steamer Button-Up Shacket</t>
+  </si>
+  <si>
+    <t>$69.74</t>
+  </si>
+  <si>
+    <t>Men's Fanatics Branded Royal/Gold Golden State Warriors Team Leader Iconic Colorblock Anorak Raglan Quarter-Zip Hoodie</t>
+  </si>
+  <si>
+    <t>$36.09</t>
   </si>
   <si>
     <t>Men's Levelwear Royal Golden State Warriors Spector Insignia Core Quarter-Zip Pullover Top</t>
@@ -224,58 +248,64 @@
     <t>$73.49</t>
   </si>
   <si>
-    <t>Men's Fanatics Branded Royal Golden State Warriors Big &amp; Tall Anorak Half-Zip Hoodie</t>
-  </si>
-  <si>
-    <t>$52.49</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Steamer Button-Up Shacket</t>
-  </si>
-  <si>
-    <t>$69.74</t>
-  </si>
-  <si>
     <t>Men's Levelwear Royal Golden State Warriors Dimension Insignia Core Pullover Hoodie</t>
   </si>
   <si>
+    <t>Men's Antigua Royal Golden State Warriors Links Full-Zip Golf Jacket</t>
+  </si>
+  <si>
+    <t>$67.49</t>
+  </si>
+  <si>
     <t>Men's Golden State Warriors Royal Mitchell &amp; Ness Hardwood Classics 75th Anniversary Authentic Warmup Full-Snap Jacket</t>
   </si>
   <si>
     <t>$187.49</t>
   </si>
   <si>
-    <t>Men's JH Design Royal Golden State Warriors Lightweight Nylon Full-Zip Bomber Jacket</t>
+    <t>Men's Antigua Royal Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Heather Black Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$64.49</t>
+  </si>
+  <si>
+    <t>Men's Antigua White Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Antigua Heather Gray Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
   </si>
   <si>
     <t>Men's Columbia Royal Golden State Warriors Team Shotgun Quarter-Zip Pullover Jacket</t>
   </si>
   <si>
-    <t>Men's Antigua Royal Golden State Warriors Links Full-Zip Golf Jacket</t>
-  </si>
-  <si>
-    <t>$67.49</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Black Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$64.49</t>
-  </si>
-  <si>
-    <t>Men's Antigua White Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Gray Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Antigua Royal Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Black Golden State Warriors Action Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$58.49</t>
+    <t>Men's Antigua Black Golden State Warriors Links Full-Zip Golf Jacket</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Charter Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Black Golden State Warriors Luca Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$80.99</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Truth Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$78.74</t>
+  </si>
+  <si>
+    <t>Men's Antigua Oatmeal Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
   </si>
   <si>
     <t>Men's Levelwear Royal Golden State Warriors Pitch Insignia Core Quarter-Zip Pullover Top</t>
@@ -284,43 +314,31 @@
     <t>$84.74</t>
   </si>
   <si>
+    <t>Men's Antigua Gray Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Gray Golden State Warriors Finley Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$88.49</t>
+  </si>
+  <si>
+    <t>$62.24</t>
+  </si>
+  <si>
     <t>Men's Levelwear Black Golden State Warriors Beam Insignia Core Quarter-Zip Pullover Top</t>
   </si>
   <si>
     <t>$93.74</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Charter Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Truth Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$78.74</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Black Golden State Warriors Luca Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$80.99</t>
-  </si>
-  <si>
-    <t>$62.24</t>
-  </si>
-  <si>
-    <t>Men's Antigua Oatmeal Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Gray Golden State Warriors Finley Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$88.49</t>
+    <t>Men's Antigua Oatmeal Golden State Warriors Action Quarter-Zip Pullover Sweatshirt</t>
+  </si>
+  <si>
+    <t>$41.24</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Galaxy Insignia Core Quarter-Zip Pullover Top</t>
   </si>
   <si>
     <t>Men's Starter Royal Golden State Warriors Pick &amp; Roll Satin Full-Snap Varsity Jacket</t>
@@ -335,34 +353,16 @@
     <t>$112.50</t>
   </si>
   <si>
-    <t>Men's Antigua Heather Royal Golden State Warriors Action Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's Starter Black Golden State Warriors In-Field Play Fashion Satin Full-Zip Varsity Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Links Full-Zip Golf Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Gray Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
-  </si>
-  <si>
-    <t>Men's Columbia Royal Golden State Warriors Steens Full-Zip Jacket</t>
+    <t>Men's Antigua Black Golden State Warriors Steamer Quarter-Snap Pullover Top</t>
+  </si>
+  <si>
+    <t>$66.74</t>
   </si>
   <si>
     <t>Men's Antigua Royal Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Steamer Quarter-Snap Pullover Top</t>
-  </si>
-  <si>
-    <t>$66.74</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Gray Golden State Warriors Saga Long Sleeve Hoodie T-Shirt</t>
-  </si>
-  <si>
-    <t>$65.24</t>
+    <t>Golden State Warriors JH Design Reversible Poly-Twill Hooded Jacket with Fleece Sleeves - Royal/Gray</t>
   </si>
 </sst>
 </file>
@@ -465,29 +465,29 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -498,95 +498,95 @@
         <v>20</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="C15" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="C16" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -608,7 +608,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -619,7 +619,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -630,7 +630,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -638,10 +638,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -649,65 +649,65 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>50</v>
-      </c>
       <c r="C26" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="C27" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -715,10 +715,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -726,186 +726,186 @@
         <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="C34" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="C44" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>34</v>
-      </c>
       <c r="C45" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -913,10 +913,10 @@
         <v>78</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -927,7 +927,7 @@
         <v>80</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -938,7 +938,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -946,10 +946,10 @@
         <v>83</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -957,32 +957,32 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>80</v>
-      </c>
       <c r="C51" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -990,175 +990,175 @@
         <v>88</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="C68" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1166,54 +1166,54 @@
         <v>111</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WarriorResult.xlsx
+++ b/Data/WarriorResult.xlsx
@@ -41,6 +41,21 @@
     <t/>
   </si>
   <si>
+    <t>Men's Nike Black Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$74.99</t>
+  </si>
+  <si>
+    <t>Most Popular in Men Hoodies &amp; Sweatshirts</t>
+  </si>
+  <si>
+    <t>Men's Starter White Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$138.74</t>
+  </si>
+  <si>
     <t>Men's Starter Royal Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
@@ -56,51 +71,42 @@
     <t>$129.99</t>
   </si>
   <si>
-    <t>Men's Starter White Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$138.74</t>
-  </si>
-  <si>
-    <t>Men's Nike Black Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$74.99</t>
-  </si>
-  <si>
-    <t>Most Popular in Men Hoodies &amp; Sweatshirts</t>
+    <t>Men's Starter Black Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
+  </si>
+  <si>
+    <t>Men's Nike Black/Yellow Golden State Warriors 2022/23 City Edition Showtime Thermaflex Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$123.74</t>
+  </si>
+  <si>
+    <t>Men's Starter Royal Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Heather Gray Golden State Warriors Victory Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$56.24</t>
   </si>
   <si>
     <t>Men's Starter Royal Golden State Warriors Force Play Satin Hoodie Half-Zip Jacket</t>
   </si>
   <si>
-    <t>$123.74</t>
-  </si>
-  <si>
-    <t>Men's Nike Black/Yellow Golden State Warriors 2022/23 City Edition Showtime Thermaflex Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's Starter Black Golden State Warriors Home Game Satin Full-Snap Varsity Jacket</t>
-  </si>
-  <si>
-    <t>Men's Starter Royal Golden State Warriors Home Team Hoodie Half-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Gray Golden State Warriors Victory Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$56.24</t>
+    <t>Men's JH Design Royal/White Golden State Warriors Reversible Fleece &amp; Faux Leather Full-Snap Jacket</t>
+  </si>
+  <si>
+    <t>$89.99</t>
+  </si>
+  <si>
+    <t>Men's JH Design Royal Golden State Warriors Reversible Embroidered Wool Full-Snap Jacket</t>
+  </si>
+  <si>
+    <t>$135.00</t>
   </si>
   <si>
     <t>Men's Nike Royal Golden State Warriors 2023/24 Authentic Performance Half-Zip Jacket</t>
   </si>
   <si>
-    <t>Men's JH Design Royal/White Golden State Warriors Reversible Fleece &amp; Faux Leather Full-Snap Jacket</t>
-  </si>
-  <si>
-    <t>$89.99</t>
-  </si>
-  <si>
     <t>Men's Starter Royal Golden State Warriors Force Play Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
@@ -113,22 +119,37 @@
     <t>$119.99</t>
   </si>
   <si>
+    <t>Men's Starter x Ty Mopkins Black Golden State Warriors Black History Month Satin Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$149.99</t>
+  </si>
+  <si>
+    <t>Men's JH Design Gray/Royal Golden State Warriors Embroidered Logo Reversible Fleece Full-Snap Jacket</t>
+  </si>
+  <si>
+    <t>Men's Columbia Royal Golden State Warriors Steens Mountain 2.0 Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$53.99</t>
+  </si>
+  <si>
     <t>Men's Antigua Black Golden State Warriors Altitude Full-Zip Jacket</t>
   </si>
   <si>
     <t>$82.49</t>
   </si>
   <si>
-    <t>Men's Starter x Ty Mopkins Black Golden State Warriors Black History Month Satin Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$149.99</t>
-  </si>
-  <si>
-    <t>Men's JH Design Royal Golden State Warriors Reversible Embroidered Wool Full-Snap Jacket</t>
-  </si>
-  <si>
-    <t>$135.00</t>
+    <t>Men's Columbia Blue Golden State Warriors Oroville Creek Lined Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>$108.99</t>
+  </si>
+  <si>
+    <t>Unisex Bleacher Report x Mitchell &amp; Ness Black Golden State Warriors Backstage Crew Hoodie Full-Zip Jacket</t>
+  </si>
+  <si>
+    <t>Men's Starter Gold Golden State Warriors Slider Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
     <t>Men's Antigua Black Golden State Warriors Victory Full-Zip Jacket</t>
@@ -137,31 +158,25 @@
     <t>$59.99</t>
   </si>
   <si>
-    <t>Men's JH Design Gray/Royal Golden State Warriors Embroidered Logo Reversible Fleece Full-Snap Jacket</t>
+    <t>Men's Columbia Heather Gray Golden State Warriors Omni-Wick Rockin' It Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$85.99</t>
   </si>
   <si>
     <t>Men's JH Design Black Golden State Warriors 2022/23 City Edition Full-Zip Nylon Bomber Jacket</t>
   </si>
   <si>
-    <t>Unisex Bleacher Report x Mitchell &amp; Ness Black Golden State Warriors Backstage Crew Hoodie Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's Columbia Royal Golden State Warriors Steens Mountain 2.0 Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$53.99</t>
-  </si>
-  <si>
-    <t>Men's Columbia Blue Golden State Warriors Oroville Creek Lined Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>$108.99</t>
-  </si>
-  <si>
-    <t>Men's Columbia Heather Gray Golden State Warriors Omni-Wick Rockin' It Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$85.99</t>
+    <t>Men's G-III Sports by Carl Banks Royal Golden State Warriors Contender Wordmark Full-Zip Track Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>$65.99</t>
+  </si>
+  <si>
+    <t>Men's Nike Royal Golden State Warriors Courtside Versus Capsule Full-Zip Jacket</t>
   </si>
   <si>
     <t>Men's Mitchell &amp; Ness White Golden State Warriors Hardwood Classics Arched Retro Lined Full-Zip Windbreaker Jacket</t>
@@ -170,91 +185,136 @@
     <t>$101.24</t>
   </si>
   <si>
+    <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Team Origins Anorak Quarter-Zip Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>$86.24</t>
+  </si>
+  <si>
+    <t>Unisex The Wild Collective Royal Golden State Warriors Metallic Full-Snap Bomber Jacket</t>
+  </si>
+  <si>
     <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Hardwood Classics Team OG 2.0 Anorak Hoodie Half-Zip Windbreaker Jacket</t>
   </si>
   <si>
-    <t>Men's Nike Royal Golden State Warriors Courtside Versus Capsule Full-Zip Jacket</t>
-  </si>
-  <si>
-    <t>Men's G-III Sports by Carl Banks Royal Golden State Warriors Contender Wordmark Full-Zip Track Jacket</t>
-  </si>
-  <si>
-    <t>Men's Starter Gold Golden State Warriors Slider Satin Full-Snap Varsity Jacket</t>
-  </si>
-  <si>
-    <t>Unisex The Wild Collective Royal Golden State Warriors Metallic Full-Snap Bomber Jacket</t>
-  </si>
-  <si>
-    <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Team Origins Anorak Quarter-Zip Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>$86.24</t>
-  </si>
-  <si>
     <t>Men's Antigua Black Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
   </si>
   <si>
-    <t>$65.99</t>
+    <t>Men's Levelwear Royal Golden State Warriors Dimension Insignia Core Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>$73.49</t>
+  </si>
+  <si>
+    <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Undeniable Full-Zip Windbreaker Jacket</t>
   </si>
   <si>
     <t>Men's Antigua Heather Gray/Black Golden State Warriors Victory Colorblock Quarter-Zip Pullover Top</t>
   </si>
   <si>
-    <t>Men's Mitchell &amp; Ness Royal Golden State Warriors Undeniable Full-Zip Windbreaker Jacket</t>
-  </si>
-  <si>
     <t>Men's JH Design Royal Golden State Warriors Lightweight Nylon Full-Zip Bomber Jacket</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
-  </si>
-  <si>
     <t>Men's Antigua Heather Gray Golden State Warriors Victory Full-Zip Jacket</t>
   </si>
   <si>
+    <t>Men's Antigua Black Golden State Warriors Steamer Button-Up Shacket</t>
+  </si>
+  <si>
+    <t>$69.74</t>
+  </si>
+  <si>
     <t>Men's Columbia Heathered Gray/Royal Golden State Warriors Omni-Wick Shotgun 2.0 Quarter-Zip Pullover Top</t>
   </si>
   <si>
     <t>$99.99</t>
   </si>
   <si>
+    <t>Men's Antigua Oatmeal Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
+  </si>
+  <si>
     <t>Men's Antigua Heather Black Golden State Warriors Action Full-Zip Jacket</t>
   </si>
   <si>
     <t>$58.49</t>
   </si>
   <si>
+    <t>Men's Levelwear Royal Golden State Warriors Spector Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Antigua Royal Golden State Warriors Links Full-Zip Golf Jacket</t>
+  </si>
+  <si>
+    <t>$67.49</t>
+  </si>
+  <si>
     <t>Men's Fanatics Branded Royal Golden State Warriors Big &amp; Tall Anorak Half-Zip Hoodie</t>
   </si>
   <si>
     <t>$52.49</t>
   </si>
   <si>
-    <t>Men's Antigua Black Golden State Warriors Steamer Button-Up Shacket</t>
-  </si>
-  <si>
-    <t>$69.74</t>
-  </si>
-  <si>
-    <t>Men's Fanatics Branded Royal/Gold Golden State Warriors Team Leader Iconic Colorblock Anorak Raglan Quarter-Zip Hoodie</t>
-  </si>
-  <si>
-    <t>$36.09</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Spector Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$73.49</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Dimension Insignia Core Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>Men's Antigua Royal Golden State Warriors Links Full-Zip Golf Jacket</t>
-  </si>
-  <si>
-    <t>$67.49</t>
+    <t>Men's Antigua Heather Black Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$64.49</t>
+  </si>
+  <si>
+    <t>Men's Antigua Royal Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
+  </si>
+  <si>
+    <t>Men's Columbia Royal Golden State Warriors Team Shotgun Quarter-Zip Pullover Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Black Golden State Warriors Links Full-Zip Golf Jacket</t>
+  </si>
+  <si>
+    <t>Men's Antigua Heather Gray Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Antigua White Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Charter Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Black Golden State Warriors Luca Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$80.99</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Truth Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$78.74</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Royal Golden State Warriors Pitch Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$84.74</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Gray Golden State Warriors Finley Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$88.49</t>
+  </si>
+  <si>
+    <t>$62.24</t>
+  </si>
+  <si>
+    <t>Men's Levelwear Black Golden State Warriors Beam Insignia Core Quarter-Zip Pullover Top</t>
+  </si>
+  <si>
+    <t>$93.74</t>
   </si>
   <si>
     <t>Men's Golden State Warriors Royal Mitchell &amp; Ness Hardwood Classics 75th Anniversary Authentic Warmup Full-Snap Jacket</t>
@@ -263,73 +323,10 @@
     <t>$187.49</t>
   </si>
   <si>
-    <t>Men's Antigua Royal Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Black Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$64.49</t>
-  </si>
-  <si>
-    <t>Men's Antigua White Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Antigua Heather Gray Golden State Warriors Hunk Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Generation Quarter-Zip Pullover Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
-  </si>
-  <si>
-    <t>Men's Columbia Royal Golden State Warriors Team Shotgun Quarter-Zip Pullover Jacket</t>
-  </si>
-  <si>
-    <t>Men's Antigua Black Golden State Warriors Links Full-Zip Golf Jacket</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Charter Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Black Golden State Warriors Luca Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$80.99</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Truth Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$78.74</t>
-  </si>
-  <si>
-    <t>Men's Antigua Oatmeal Golden State Warriors Axe Bunker Tri-Blend Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Royal Golden State Warriors Pitch Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$84.74</t>
-  </si>
-  <si>
-    <t>Men's Antigua Gray Golden State Warriors Strong Hold Long Sleeve Henley Hoodie T-Shirt</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Gray Golden State Warriors Finley Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$88.49</t>
-  </si>
-  <si>
-    <t>$62.24</t>
-  </si>
-  <si>
-    <t>Men's Levelwear Black Golden State Warriors Beam Insignia Core Quarter-Zip Pullover Top</t>
-  </si>
-  <si>
-    <t>$93.74</t>
+    <t>Golden State Warriors JH Design Reversible Poly-Twill Hooded Jacket with Fleece Sleeves - Royal/Gray</t>
+  </si>
+  <si>
+    <t>$104.99</t>
   </si>
   <si>
     <t>Men's Antigua Oatmeal Golden State Warriors Action Quarter-Zip Pullover Sweatshirt</t>
@@ -338,15 +335,21 @@
     <t>$41.24</t>
   </si>
   <si>
+    <t>Men's Antigua Royal Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
+  </si>
+  <si>
     <t>Men's Levelwear Royal Golden State Warriors Galaxy Insignia Core Quarter-Zip Pullover Top</t>
   </si>
   <si>
+    <t>Men's Antigua Heather Black Golden State Warriors Saga Long Sleeve Hoodie T-Shirt</t>
+  </si>
+  <si>
+    <t>$65.24</t>
+  </si>
+  <si>
     <t>Men's Starter Royal Golden State Warriors Pick &amp; Roll Satin Full-Snap Varsity Jacket</t>
   </si>
   <si>
-    <t>$104.99</t>
-  </si>
-  <si>
     <t>Men's Mitchell &amp; Ness Navy Golden State Warriors Exploded Logo Warm-Up Full-Zip Jacket</t>
   </si>
   <si>
@@ -359,10 +362,7 @@
     <t>$66.74</t>
   </si>
   <si>
-    <t>Men's Antigua Royal Golden State Warriors Flier Bunker Pullover Sweatshirt</t>
-  </si>
-  <si>
-    <t>Golden State Warriors JH Design Reversible Poly-Twill Hooded Jacket with Fleece Sleeves - Royal/Gray</t>
+    <t>Men's Starter Black Golden State Warriors In-Field Play Fashion Satin Full-Zip Varsity Jacket</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -476,18 +476,18 @@
         <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -495,18 +495,18 @@
         <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
@@ -517,10 +517,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
@@ -550,32 +550,32 @@
         <v>26</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -616,32 +616,32 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="C20" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="C21" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -649,7 +649,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>36</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -704,7 +704,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>13</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
@@ -737,10 +737,10 @@
         <v>54</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -748,7 +748,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
@@ -756,21 +756,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
@@ -792,7 +792,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
@@ -803,7 +803,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
@@ -880,7 +880,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>8</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>75</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>8</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>8</v>
@@ -910,21 +910,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>77</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>8</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>82</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>8</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>8</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>8</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>8</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>8</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>8</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>8</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>8</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>8</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>8</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>8</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>8</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>8</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>8</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>60</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>8</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>8</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>8</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>8</v>
@@ -1144,7 +1144,7 @@
         <v>108</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>8</v>
@@ -1166,7 +1166,7 @@
         <v>111</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>8</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>8</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>115</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>8</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>8</v>
@@ -1210,7 +1210,7 @@
         <v>116</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>8</v>
